--- a/DataFolder/ExcelFiles/Product groups/Встраиваемая техника/Посудомоечные машины.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Встраиваемая техника/Посудомоечные машины.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork\DataFolder\ExcelFiles\Product groups\Встраиваемая техника\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -798,9 +798,6 @@
     <t>Вместимость (комплектов)</t>
   </si>
   <si>
-    <t>Размеры (Ш х Г х В, см)</t>
-  </si>
-  <si>
     <t>Уровень шума при работе (дБ)</t>
   </si>
   <si>
@@ -814,6 +811,9 @@
   </si>
   <si>
     <t>13,5</t>
+  </si>
+  <si>
+    <t>Габариты (Ш х Г х В, см)</t>
   </si>
 </sst>
 </file>
@@ -1465,16 +1465,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1845,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>11</v>
@@ -1860,13 +1851,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>257</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>20</v>
@@ -2954,7 +2945,7 @@
         <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>172</v>
@@ -3634,7 +3625,7 @@
         <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>31</v>
@@ -3798,7 +3789,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>129</v>
@@ -3968,7 +3959,7 @@
         <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>129</v>
@@ -5085,7 +5076,7 @@
         <v>81</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>31</v>
@@ -6030,7 +6021,7 @@
         <v>81</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>49</v>
@@ -6115,7 +6106,7 @@
         <v>81</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>49</v>

--- a/DataFolder/ExcelFiles/Product groups/Встраиваемая техника/Посудомоечные машины.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Встраиваемая техника/Посудомоечные машины.xlsx
@@ -636,12 +636,6 @@
     <t>DF480161</t>
   </si>
   <si>
-    <t>Посудомоечная машина Miele G4203SСi</t>
-  </si>
-  <si>
-    <t>G4203SСi</t>
-  </si>
-  <si>
     <t>Посудомоечная машина Miele G4960SCVi</t>
   </si>
   <si>
@@ -814,6 +808,12 @@
   </si>
   <si>
     <t>Габариты (Ш х Г х В, см)</t>
+  </si>
+  <si>
+    <t>G4203SCi</t>
+  </si>
+  <si>
+    <t>Посудомоечная машина Miele G4203SCi</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1836,13 +1838,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>8</v>
@@ -1851,13 +1853,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>20</v>
@@ -1923,7 +1925,7 @@
         <v>81</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>31</v>
@@ -2010,7 +2012,7 @@
         <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>49</v>
@@ -2097,7 +2099,7 @@
         <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>49</v>
@@ -2133,7 +2135,7 @@
         <v>98</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>38</v>
@@ -2180,7 +2182,7 @@
         <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>49</v>
@@ -2216,7 +2218,7 @@
         <v>98</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>38</v>
@@ -2241,7 +2243,7 @@
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -2265,7 +2267,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2301,7 +2303,7 @@
         <v>98</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>38</v>
@@ -2348,7 +2350,7 @@
         <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>31</v>
@@ -2435,7 +2437,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>172</v>
@@ -2522,7 +2524,7 @@
         <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>172</v>
@@ -2605,7 +2607,7 @@
         <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>49</v>
@@ -2692,7 +2694,7 @@
         <v>81</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>49</v>
@@ -2749,7 +2751,7 @@
         <v>38</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>36</v>
@@ -2777,7 +2779,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>129</v>
@@ -2862,7 +2864,7 @@
         <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>49</v>
@@ -2945,7 +2947,7 @@
         <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>172</v>
@@ -3002,7 +3004,7 @@
         <v>38</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>51</v>
@@ -3032,7 +3034,7 @@
         <v>81</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>172</v>
@@ -3089,7 +3091,7 @@
         <v>38</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -3115,7 +3117,7 @@
         <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>172</v>
@@ -3172,7 +3174,7 @@
         <v>38</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>51</v>
@@ -3202,7 +3204,7 @@
         <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>31</v>
@@ -3255,7 +3257,7 @@
         <v>38</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -3281,7 +3283,7 @@
         <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>31</v>
@@ -3334,7 +3336,7 @@
         <v>38</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -3360,7 +3362,7 @@
         <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>31</v>
@@ -3417,7 +3419,7 @@
         <v>38</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>51</v>
@@ -3447,7 +3449,7 @@
         <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>129</v>
@@ -3477,7 +3479,7 @@
         <v>38</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>56</v>
@@ -3504,7 +3506,7 @@
         <v>38</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>36</v>
@@ -3532,7 +3534,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>49</v>
@@ -3619,13 +3621,13 @@
         <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>31</v>
@@ -3676,7 +3678,7 @@
         <v>38</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>36</v>
@@ -3704,7 +3706,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>129</v>
@@ -3789,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>129</v>
@@ -3874,7 +3876,7 @@
         <v>81</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>129</v>
@@ -3959,7 +3961,7 @@
         <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>129</v>
@@ -4044,7 +4046,7 @@
         <v>46</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>49</v>
@@ -4131,7 +4133,7 @@
         <v>137</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>49</v>
@@ -4215,10 +4217,10 @@
         <v>29</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>49</v>
@@ -4302,10 +4304,10 @@
         <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>49</v>
@@ -4392,7 +4394,7 @@
         <v>81</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>49</v>
@@ -4477,7 +4479,7 @@
         <v>81</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>49</v>
@@ -4562,7 +4564,7 @@
         <v>81</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>49</v>
@@ -4647,7 +4649,7 @@
         <v>81</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>49</v>
@@ -4732,7 +4734,7 @@
         <v>81</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>129</v>
@@ -4819,7 +4821,7 @@
         <v>81</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>129</v>
@@ -4904,7 +4906,7 @@
         <v>81</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>31</v>
@@ -4991,7 +4993,7 @@
         <v>81</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>172</v>
@@ -5076,7 +5078,7 @@
         <v>81</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>31</v>
@@ -5109,10 +5111,10 @@
         <v>48</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>38</v>
@@ -5161,7 +5163,7 @@
         <v>81</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>49</v>
@@ -5248,7 +5250,7 @@
         <v>81</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>172</v>
@@ -5333,7 +5335,7 @@
         <v>81</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>172</v>
@@ -5420,7 +5422,7 @@
         <v>81</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>172</v>
@@ -5507,7 +5509,7 @@
         <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>172</v>
@@ -5564,7 +5566,7 @@
         <v>38</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB44" s="1" t="s">
         <v>51</v>
@@ -5594,7 +5596,7 @@
         <v>81</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>49</v>
@@ -5651,7 +5653,7 @@
         <v>38</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>36</v>
@@ -5679,7 +5681,7 @@
         <v>28</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>172</v>
@@ -5764,7 +5766,7 @@
         <v>81</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>129</v>
@@ -5821,7 +5823,7 @@
         <v>38</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB47" s="1" t="s">
         <v>36</v>
@@ -5849,7 +5851,7 @@
         <v>81</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>49</v>
@@ -5879,7 +5881,7 @@
         <v>38</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>56</v>
@@ -5906,7 +5908,7 @@
         <v>38</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>36</v>
@@ -5934,7 +5936,7 @@
         <v>81</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>49</v>
@@ -6021,7 +6023,7 @@
         <v>81</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>49</v>
@@ -6106,7 +6108,7 @@
         <v>81</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>49</v>
@@ -6191,7 +6193,7 @@
         <v>81</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>49</v>
@@ -6276,7 +6278,7 @@
         <v>81</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>129</v>
@@ -6361,7 +6363,7 @@
         <v>81</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>49</v>
@@ -6427,10 +6429,10 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>44</v>
@@ -6446,7 +6448,7 @@
         <v>81</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>31</v>
@@ -6510,10 +6512,10 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>44</v>
@@ -6529,7 +6531,7 @@
         <v>28</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>129</v>
@@ -6595,10 +6597,10 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>44</v>
@@ -6614,7 +6616,7 @@
         <v>28</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>49</v>
@@ -6644,13 +6646,13 @@
         <v>38</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>34</v>
@@ -6677,15 +6679,15 @@
         <v>36</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>44</v>
@@ -6701,7 +6703,7 @@
         <v>28</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>129</v>
@@ -6763,10 +6765,10 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>25</v>
@@ -6782,7 +6784,7 @@
         <v>81</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>31</v>
@@ -6850,10 +6852,10 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>44</v>
@@ -6869,7 +6871,7 @@
         <v>81</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>31</v>
@@ -6935,10 +6937,10 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>25</v>
@@ -6954,7 +6956,7 @@
         <v>28</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>172</v>
@@ -7020,10 +7022,10 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>25</v>
@@ -7039,7 +7041,7 @@
         <v>28</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>172</v>
@@ -7105,10 +7107,10 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>44</v>
@@ -7124,7 +7126,7 @@
         <v>81</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>49</v>
@@ -7187,15 +7189,15 @@
         <v>36</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>44</v>
@@ -7211,7 +7213,7 @@
         <v>81</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>129</v>
@@ -7277,10 +7279,10 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>44</v>
@@ -7296,7 +7298,7 @@
         <v>28</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>172</v>
@@ -7362,10 +7364,10 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>44</v>
@@ -7381,7 +7383,7 @@
         <v>81</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>172</v>
@@ -7447,10 +7449,10 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>25</v>
@@ -7466,7 +7468,7 @@
         <v>28</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>129</v>
@@ -7532,10 +7534,10 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>44</v>
@@ -7551,7 +7553,7 @@
         <v>81</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>31</v>
@@ -7581,7 +7583,7 @@
         <v>34</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>53</v>
@@ -7614,7 +7616,7 @@
         <v>36</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
